--- a/02_config/scenario_pv_60_hp_60_ev_60_mixed_10_winter_naive/agents.xlsx
+++ b/02_config/scenario_pv_60_hp_60_ev_60_mixed_10_winter_naive/agents.xlsx
@@ -29,12 +29,12 @@
     <t>general/bus</t>
   </si>
   <si>
+    <t>general/aggregated_by</t>
+  </si>
+  <si>
     <t>general/parameters/occupants</t>
   </si>
   <si>
-    <t>general/aggregated_by</t>
-  </si>
-  <si>
     <t>general/parameters/area</t>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
     <t>sfh_38</t>
   </si>
   <si>
-    <t>JSDQvC7bTOU3MxA</t>
+    <t>O4GeyE3w6MjSC9D</t>
   </si>
   <si>
     <t>000018853.csv</t>
@@ -1544,7 +1544,7 @@
     <t>clustering_represented_group/agent_types</t>
   </si>
   <si>
-    <t>['sfh_6', 'sfh_37', 'sfh_22', 'sfh_24', 'sfh_27', 'sfh_10', 'sfh_28', 'sfh_5', 'sfh_14', 'sfh_11']</t>
+    <t>['sfh_3', 'sfh_20', 'sfh_25', 'sfh_30', 'sfh_17', 'sfh_35', 'sfh_15', 'sfh_7', 'sfh_26', 'sfh_28']</t>
   </si>
   <si>
     <t>[1]</t>
@@ -2799,11 +2799,11 @@
       <c r="E2">
         <v>21274</v>
       </c>
-      <c r="F2">
-        <v>4</v>
+      <c r="G2">
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -2812,7 +2812,7 @@
         <v>2.6</v>
       </c>
       <c r="K2">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="DE2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="s">
         <v>368</v>
@@ -3148,7 +3148,7 @@
         <v>484</v>
       </c>
       <c r="IN2">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO2">
         <v>1</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="JG2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ2">
         <v>0</v>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="JL2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:290">
@@ -3221,11 +3221,11 @@
       <c r="E3">
         <v>21249</v>
       </c>
-      <c r="F3">
-        <v>3</v>
+      <c r="G3">
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -3234,7 +3234,7 @@
         <v>2.6</v>
       </c>
       <c r="K3">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -3393,7 +3393,7 @@
         <v>50</v>
       </c>
       <c r="DE3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="s">
         <v>368</v>
@@ -3699,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="JG3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ3">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="JL3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:290">
@@ -3721,7 +3721,7 @@
       <c r="E4">
         <v>21166</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>4</v>
       </c>
       <c r="H4">
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
       <c r="DE4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="s">
         <v>368</v>
@@ -4070,7 +4070,7 @@
         <v>484</v>
       </c>
       <c r="IN4">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO4">
         <v>1</v>
@@ -4121,7 +4121,7 @@
         <v>0</v>
       </c>
       <c r="JG4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ4">
         <v>0</v>
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="JL4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:290">
@@ -4143,7 +4143,10 @@
       <c r="E5">
         <v>20723</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>328</v>
+      </c>
+      <c r="G5">
         <v>4</v>
       </c>
       <c r="H5">
@@ -4315,7 +4318,7 @@
         <v>51</v>
       </c>
       <c r="DE5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="s">
         <v>368</v>
@@ -4597,7 +4600,7 @@
         <v>484</v>
       </c>
       <c r="IN5">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO5">
         <v>1</v>
@@ -4654,7 +4657,7 @@
         <v>51</v>
       </c>
       <c r="JG5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ5">
         <v>0</v>
@@ -4663,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="JL5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM5" t="s">
         <v>494</v>
@@ -4730,7 +4733,7 @@
       <c r="E6">
         <v>20561</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3</v>
       </c>
       <c r="H6">
@@ -4902,7 +4905,7 @@
         <v>42</v>
       </c>
       <c r="DE6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="s">
         <v>368</v>
@@ -5130,7 +5133,7 @@
         <v>484</v>
       </c>
       <c r="IN6">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO6">
         <v>1</v>
@@ -5181,7 +5184,7 @@
         <v>0</v>
       </c>
       <c r="JG6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ6">
         <v>0</v>
@@ -5190,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="JL6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:290">
@@ -5203,14 +5206,11 @@
       <c r="E7">
         <v>20289</v>
       </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>328</v>
+      <c r="G7">
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -5219,7 +5219,7 @@
         <v>2.6</v>
       </c>
       <c r="K7">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="DE7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="s">
         <v>368</v>
@@ -5555,7 +5555,7 @@
         <v>484</v>
       </c>
       <c r="IN7">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO7">
         <v>1</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="JG7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ7">
         <v>0</v>
@@ -5615,7 +5615,7 @@
         <v>0</v>
       </c>
       <c r="JL7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:290">
@@ -5628,14 +5628,11 @@
       <c r="E8">
         <v>20136</v>
       </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>328</v>
+      <c r="G8">
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -5644,7 +5641,7 @@
         <v>2.6</v>
       </c>
       <c r="K8">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -5788,7 +5785,7 @@
         <v>0</v>
       </c>
       <c r="DE8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="s">
         <v>368</v>
@@ -5980,7 +5977,7 @@
         <v>484</v>
       </c>
       <c r="IN8">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO8">
         <v>1</v>
@@ -6031,7 +6028,7 @@
         <v>0</v>
       </c>
       <c r="JG8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ8">
         <v>0</v>
@@ -6040,7 +6037,7 @@
         <v>0</v>
       </c>
       <c r="JL8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:290">
@@ -6053,7 +6050,10 @@
       <c r="E9">
         <v>19994</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="s">
+        <v>328</v>
+      </c>
+      <c r="G9">
         <v>4</v>
       </c>
       <c r="H9">
@@ -6225,7 +6225,7 @@
         <v>46</v>
       </c>
       <c r="DE9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="s">
         <v>368</v>
@@ -6507,7 +6507,7 @@
         <v>484</v>
       </c>
       <c r="IN9">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO9">
         <v>1</v>
@@ -6558,7 +6558,7 @@
         <v>0</v>
       </c>
       <c r="JG9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ9">
         <v>0</v>
@@ -6567,7 +6567,7 @@
         <v>0</v>
       </c>
       <c r="JL9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM9" t="s">
         <v>495</v>
@@ -6607,7 +6607,7 @@
       <c r="E10">
         <v>19849</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>3</v>
       </c>
       <c r="H10">
@@ -6764,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="DE10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="s">
         <v>368</v>
@@ -6956,7 +6956,7 @@
         <v>484</v>
       </c>
       <c r="IN10">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO10">
         <v>1</v>
@@ -7007,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="JG10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ10">
         <v>0</v>
@@ -7016,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="JL10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:290">
@@ -7029,7 +7029,7 @@
       <c r="E11">
         <v>19767</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>4</v>
       </c>
       <c r="H11">
@@ -7186,7 +7186,7 @@
         <v>0</v>
       </c>
       <c r="DE11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="s">
         <v>368</v>
@@ -7378,7 +7378,7 @@
         <v>484</v>
       </c>
       <c r="IN11">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO11">
         <v>1</v>
@@ -7429,7 +7429,7 @@
         <v>0</v>
       </c>
       <c r="JG11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ11">
         <v>0</v>
@@ -7438,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="JL11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:290">
@@ -7451,14 +7451,11 @@
       <c r="E12">
         <v>19761</v>
       </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12" t="s">
-        <v>328</v>
+      <c r="G12">
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -7467,7 +7464,7 @@
         <v>2.6</v>
       </c>
       <c r="K12">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -7626,7 +7623,7 @@
         <v>42</v>
       </c>
       <c r="DE12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="s">
         <v>368</v>
@@ -7908,7 +7905,7 @@
         <v>484</v>
       </c>
       <c r="IN12">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO12">
         <v>1</v>
@@ -7959,7 +7956,7 @@
         <v>0</v>
       </c>
       <c r="JG12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ12">
         <v>0</v>
@@ -7968,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="JL12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM12" t="s">
         <v>496</v>
@@ -8035,14 +8032,11 @@
       <c r="E13">
         <v>19686</v>
       </c>
-      <c r="F13">
-        <v>3</v>
-      </c>
-      <c r="G13" t="s">
-        <v>328</v>
+      <c r="G13">
+        <v>4</v>
       </c>
       <c r="H13">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -8051,7 +8045,7 @@
         <v>2.6</v>
       </c>
       <c r="K13">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -8210,7 +8204,7 @@
         <v>56</v>
       </c>
       <c r="DE13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="s">
         <v>368</v>
@@ -8543,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="JG13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ13">
         <v>0</v>
@@ -8552,7 +8546,7 @@
         <v>0</v>
       </c>
       <c r="JL13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:290">
@@ -8565,11 +8559,11 @@
       <c r="E14">
         <v>19522</v>
       </c>
-      <c r="F14">
-        <v>3</v>
+      <c r="G14">
+        <v>4</v>
       </c>
       <c r="H14">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -8578,7 +8572,7 @@
         <v>2.6</v>
       </c>
       <c r="K14">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -8737,7 +8731,7 @@
         <v>51</v>
       </c>
       <c r="DE14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="s">
         <v>368</v>
@@ -8992,7 +8986,7 @@
         <v>484</v>
       </c>
       <c r="IN14">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO14">
         <v>1</v>
@@ -9043,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="JG14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ14">
         <v>0</v>
@@ -9052,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="JL14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:290">
@@ -9065,7 +9059,7 @@
       <c r="E15">
         <v>19414</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>4</v>
       </c>
       <c r="H15">
@@ -9222,7 +9216,7 @@
         <v>0</v>
       </c>
       <c r="DE15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="s">
         <v>368</v>
@@ -9414,7 +9408,7 @@
         <v>484</v>
       </c>
       <c r="IN15">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO15">
         <v>1</v>
@@ -9465,7 +9459,7 @@
         <v>0</v>
       </c>
       <c r="JG15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ15">
         <v>0</v>
@@ -9474,7 +9468,7 @@
         <v>0</v>
       </c>
       <c r="JL15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:290">
@@ -9487,14 +9481,11 @@
       <c r="E16">
         <v>19288</v>
       </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16" t="s">
-        <v>328</v>
+      <c r="G16">
+        <v>3</v>
       </c>
       <c r="H16">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -9503,7 +9494,7 @@
         <v>2.6</v>
       </c>
       <c r="K16">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -9662,7 +9653,7 @@
         <v>45</v>
       </c>
       <c r="DE16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="s">
         <v>368</v>
@@ -10001,7 +9992,7 @@
         <v>45</v>
       </c>
       <c r="JG16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ16">
         <v>0</v>
@@ -10010,7 +10001,7 @@
         <v>0</v>
       </c>
       <c r="JL16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:281">
@@ -10023,11 +10014,14 @@
       <c r="E17">
         <v>19210</v>
       </c>
-      <c r="F17">
-        <v>3</v>
+      <c r="F17" t="s">
+        <v>328</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -10036,7 +10030,7 @@
         <v>2.6</v>
       </c>
       <c r="K17">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -10195,7 +10189,7 @@
         <v>45</v>
       </c>
       <c r="DE17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF17" t="s">
         <v>368</v>
@@ -10450,7 +10444,7 @@
         <v>484</v>
       </c>
       <c r="IN17">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO17">
         <v>1</v>
@@ -10501,7 +10495,7 @@
         <v>0</v>
       </c>
       <c r="JG17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ17">
         <v>0</v>
@@ -10510,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="JL17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:281">
@@ -10523,11 +10517,11 @@
       <c r="E18">
         <v>19147</v>
       </c>
-      <c r="F18">
-        <v>3</v>
+      <c r="G18">
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -10536,7 +10530,7 @@
         <v>2.6</v>
       </c>
       <c r="K18">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -10680,7 +10674,7 @@
         <v>0</v>
       </c>
       <c r="DE18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF18" t="s">
         <v>368</v>
@@ -10872,7 +10866,7 @@
         <v>484</v>
       </c>
       <c r="IN18">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO18">
         <v>1</v>
@@ -10923,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="JG18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ18">
         <v>0</v>
@@ -10932,7 +10926,7 @@
         <v>0</v>
       </c>
       <c r="JL18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:281">
@@ -10945,11 +10939,14 @@
       <c r="E19">
         <v>19040</v>
       </c>
-      <c r="F19">
-        <v>3</v>
+      <c r="F19" t="s">
+        <v>328</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -10958,7 +10955,7 @@
         <v>2.6</v>
       </c>
       <c r="K19">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -11102,7 +11099,7 @@
         <v>0</v>
       </c>
       <c r="DE19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF19" t="s">
         <v>368</v>
@@ -11294,7 +11291,7 @@
         <v>484</v>
       </c>
       <c r="IN19">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO19">
         <v>1</v>
@@ -11345,7 +11342,7 @@
         <v>0</v>
       </c>
       <c r="JG19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ19">
         <v>0</v>
@@ -11354,7 +11351,7 @@
         <v>0</v>
       </c>
       <c r="JL19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:281">
@@ -11367,11 +11364,11 @@
       <c r="E20">
         <v>18552</v>
       </c>
-      <c r="F20">
-        <v>4</v>
+      <c r="G20">
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -11380,7 +11377,7 @@
         <v>2.6</v>
       </c>
       <c r="K20">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -11539,7 +11536,7 @@
         <v>47</v>
       </c>
       <c r="DE20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF20" t="s">
         <v>368</v>
@@ -11794,7 +11791,7 @@
         <v>484</v>
       </c>
       <c r="IN20">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO20">
         <v>1</v>
@@ -11845,7 +11842,7 @@
         <v>0</v>
       </c>
       <c r="JG20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ20">
         <v>0</v>
@@ -11854,7 +11851,7 @@
         <v>0</v>
       </c>
       <c r="JL20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:281">
@@ -11867,11 +11864,11 @@
       <c r="E21">
         <v>18493</v>
       </c>
-      <c r="F21">
-        <v>4</v>
+      <c r="G21">
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -11880,7 +11877,7 @@
         <v>2.6</v>
       </c>
       <c r="K21">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -12039,7 +12036,7 @@
         <v>45</v>
       </c>
       <c r="DE21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF21" t="s">
         <v>368</v>
@@ -12294,7 +12291,7 @@
         <v>484</v>
       </c>
       <c r="IN21">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO21">
         <v>1</v>
@@ -12345,7 +12342,7 @@
         <v>0</v>
       </c>
       <c r="JG21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ21">
         <v>0</v>
@@ -12354,7 +12351,7 @@
         <v>0</v>
       </c>
       <c r="JL21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:281">
@@ -12367,11 +12364,14 @@
       <c r="E22">
         <v>18160</v>
       </c>
-      <c r="F22">
-        <v>4</v>
+      <c r="F22" t="s">
+        <v>328</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -12380,7 +12380,7 @@
         <v>2.6</v>
       </c>
       <c r="K22">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -12524,7 +12524,7 @@
         <v>0</v>
       </c>
       <c r="DE22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF22" t="s">
         <v>368</v>
@@ -12716,7 +12716,7 @@
         <v>484</v>
       </c>
       <c r="IN22">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO22">
         <v>1</v>
@@ -12767,7 +12767,7 @@
         <v>0</v>
       </c>
       <c r="JG22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ22">
         <v>0</v>
@@ -12776,7 +12776,7 @@
         <v>0</v>
       </c>
       <c r="JL22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:281">
@@ -12789,11 +12789,11 @@
       <c r="E23">
         <v>17736</v>
       </c>
-      <c r="F23">
-        <v>3</v>
+      <c r="G23">
+        <v>4</v>
       </c>
       <c r="H23">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -12802,7 +12802,7 @@
         <v>2.6</v>
       </c>
       <c r="K23">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -12961,7 +12961,7 @@
         <v>90</v>
       </c>
       <c r="DE23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF23" t="s">
         <v>368</v>
@@ -13243,7 +13243,7 @@
         <v>484</v>
       </c>
       <c r="IN23">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO23">
         <v>1</v>
@@ -13300,7 +13300,7 @@
         <v>43</v>
       </c>
       <c r="JG23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH23">
         <v>2800</v>
@@ -13315,7 +13315,7 @@
         <v>43</v>
       </c>
       <c r="JL23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM23" t="s">
         <v>497</v>
@@ -13355,11 +13355,8 @@
       <c r="E24">
         <v>17231</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>4</v>
-      </c>
-      <c r="G24" t="s">
-        <v>328</v>
       </c>
       <c r="H24">
         <v>130</v>
@@ -13530,7 +13527,7 @@
         <v>41</v>
       </c>
       <c r="DE24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF24" t="s">
         <v>368</v>
@@ -13836,7 +13833,7 @@
         <v>0</v>
       </c>
       <c r="JG24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ24">
         <v>0</v>
@@ -13845,7 +13842,7 @@
         <v>0</v>
       </c>
       <c r="JL24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:281">
@@ -13858,7 +13855,7 @@
       <c r="E25">
         <v>17130</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>4</v>
       </c>
       <c r="H25">
@@ -14030,7 +14027,7 @@
         <v>71</v>
       </c>
       <c r="DE25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF25" t="s">
         <v>368</v>
@@ -14285,7 +14282,7 @@
         <v>484</v>
       </c>
       <c r="IN25">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO25">
         <v>1</v>
@@ -14336,7 +14333,7 @@
         <v>0</v>
       </c>
       <c r="JG25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ25">
         <v>0</v>
@@ -14345,7 +14342,7 @@
         <v>0</v>
       </c>
       <c r="JL25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:281">
@@ -14358,14 +14355,11 @@
       <c r="E26">
         <v>17042</v>
       </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26" t="s">
-        <v>328</v>
+      <c r="G26">
+        <v>4</v>
       </c>
       <c r="H26">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -14374,7 +14368,7 @@
         <v>2.6</v>
       </c>
       <c r="K26">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -14533,7 +14527,7 @@
         <v>52</v>
       </c>
       <c r="DE26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF26" t="s">
         <v>368</v>
@@ -14815,7 +14809,7 @@
         <v>484</v>
       </c>
       <c r="IN26">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO26">
         <v>1</v>
@@ -14872,7 +14866,7 @@
         <v>52</v>
       </c>
       <c r="JG26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ26">
         <v>0</v>
@@ -14881,7 +14875,7 @@
         <v>0</v>
       </c>
       <c r="JL26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:281">
@@ -14894,11 +14888,14 @@
       <c r="E27">
         <v>16829</v>
       </c>
-      <c r="F27">
-        <v>4</v>
+      <c r="F27" t="s">
+        <v>328</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -14907,7 +14904,7 @@
         <v>2.6</v>
       </c>
       <c r="K27">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -15066,7 +15063,7 @@
         <v>52</v>
       </c>
       <c r="DE27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF27" t="s">
         <v>368</v>
@@ -15399,7 +15396,7 @@
         <v>0</v>
       </c>
       <c r="JG27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ27">
         <v>0</v>
@@ -15408,7 +15405,7 @@
         <v>0</v>
       </c>
       <c r="JL27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:281">
@@ -15421,7 +15418,10 @@
       <c r="E28">
         <v>15953</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="s">
+        <v>328</v>
+      </c>
+      <c r="G28">
         <v>3</v>
       </c>
       <c r="H28">
@@ -15593,7 +15593,7 @@
         <v>55</v>
       </c>
       <c r="DE28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF28" t="s">
         <v>368</v>
@@ -15875,7 +15875,7 @@
         <v>484</v>
       </c>
       <c r="IN28">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO28">
         <v>1</v>
@@ -15932,7 +15932,7 @@
         <v>55</v>
       </c>
       <c r="JG28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ28">
         <v>0</v>
@@ -15941,7 +15941,7 @@
         <v>0</v>
       </c>
       <c r="JL28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:281">
@@ -15954,11 +15954,8 @@
       <c r="E29">
         <v>15873</v>
       </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29" t="s">
-        <v>328</v>
+      <c r="G29">
+        <v>3</v>
       </c>
       <c r="H29">
         <v>100</v>
@@ -16129,7 +16126,7 @@
         <v>90</v>
       </c>
       <c r="DE29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF29" t="s">
         <v>368</v>
@@ -16357,7 +16354,7 @@
         <v>484</v>
       </c>
       <c r="IN29">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO29">
         <v>1</v>
@@ -16414,7 +16411,7 @@
         <v>57</v>
       </c>
       <c r="JG29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ29">
         <v>0</v>
@@ -16423,7 +16420,7 @@
         <v>0</v>
       </c>
       <c r="JL29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:281">
@@ -16436,11 +16433,11 @@
       <c r="E30">
         <v>15855</v>
       </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F30" t="s">
         <v>328</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
       </c>
       <c r="H30">
         <v>100</v>
@@ -16596,7 +16593,7 @@
         <v>0</v>
       </c>
       <c r="DE30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF30" t="s">
         <v>368</v>
@@ -16788,7 +16785,7 @@
         <v>484</v>
       </c>
       <c r="IN30">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO30">
         <v>1</v>
@@ -16839,7 +16836,7 @@
         <v>0</v>
       </c>
       <c r="JG30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ30">
         <v>0</v>
@@ -16848,7 +16845,7 @@
         <v>0</v>
       </c>
       <c r="JL30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:281">
@@ -16861,11 +16858,11 @@
       <c r="E31">
         <v>15737</v>
       </c>
-      <c r="F31">
-        <v>4</v>
+      <c r="G31">
+        <v>3</v>
       </c>
       <c r="H31">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -16874,7 +16871,7 @@
         <v>2.6</v>
       </c>
       <c r="K31">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -17018,7 +17015,7 @@
         <v>0</v>
       </c>
       <c r="DE31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF31" t="s">
         <v>368</v>
@@ -17210,7 +17207,7 @@
         <v>484</v>
       </c>
       <c r="IN31">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO31">
         <v>1</v>
@@ -17261,7 +17258,7 @@
         <v>0</v>
       </c>
       <c r="JG31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ31">
         <v>0</v>
@@ -17270,7 +17267,7 @@
         <v>0</v>
       </c>
       <c r="JL31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:281">
@@ -17283,11 +17280,14 @@
       <c r="E32">
         <v>15583</v>
       </c>
-      <c r="F32">
-        <v>4</v>
+      <c r="F32" t="s">
+        <v>328</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
       </c>
       <c r="H32">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -17296,7 +17296,7 @@
         <v>2.6</v>
       </c>
       <c r="K32">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -17440,7 +17440,7 @@
         <v>0</v>
       </c>
       <c r="DE32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF32" t="s">
         <v>368</v>
@@ -17632,7 +17632,7 @@
         <v>484</v>
       </c>
       <c r="IN32">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO32">
         <v>1</v>
@@ -17683,7 +17683,7 @@
         <v>0</v>
       </c>
       <c r="JG32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ32">
         <v>0</v>
@@ -17692,7 +17692,7 @@
         <v>0</v>
       </c>
       <c r="JL32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:290">
@@ -17705,7 +17705,7 @@
       <c r="E33">
         <v>14594</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>3</v>
       </c>
       <c r="H33">
@@ -17862,7 +17862,7 @@
         <v>0</v>
       </c>
       <c r="DE33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF33" t="s">
         <v>368</v>
@@ -18054,7 +18054,7 @@
         <v>484</v>
       </c>
       <c r="IN33">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO33">
         <v>1</v>
@@ -18105,7 +18105,7 @@
         <v>0</v>
       </c>
       <c r="JG33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ33">
         <v>0</v>
@@ -18114,7 +18114,7 @@
         <v>0</v>
       </c>
       <c r="JL33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:290">
@@ -18127,7 +18127,7 @@
       <c r="E34">
         <v>14561</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>3</v>
       </c>
       <c r="H34">
@@ -18299,7 +18299,7 @@
         <v>52</v>
       </c>
       <c r="DE34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF34" t="s">
         <v>368</v>
@@ -18632,7 +18632,7 @@
         <v>0</v>
       </c>
       <c r="JG34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ34">
         <v>0</v>
@@ -18641,7 +18641,7 @@
         <v>0</v>
       </c>
       <c r="JL34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM34" t="s">
         <v>498</v>
@@ -18708,7 +18708,7 @@
       <c r="E35">
         <v>14145</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>3</v>
       </c>
       <c r="H35">
@@ -18865,7 +18865,7 @@
         <v>0</v>
       </c>
       <c r="DE35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF35" t="s">
         <v>368</v>
@@ -19057,7 +19057,7 @@
         <v>484</v>
       </c>
       <c r="IN35">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO35">
         <v>1</v>
@@ -19108,7 +19108,7 @@
         <v>0</v>
       </c>
       <c r="JG35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ35">
         <v>0</v>
@@ -19117,7 +19117,7 @@
         <v>0</v>
       </c>
       <c r="JL35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:290">
@@ -19130,7 +19130,7 @@
       <c r="E36">
         <v>14125</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>3</v>
       </c>
       <c r="H36">
@@ -19302,7 +19302,7 @@
         <v>45</v>
       </c>
       <c r="DE36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF36" t="s">
         <v>368</v>
@@ -19584,7 +19584,7 @@
         <v>484</v>
       </c>
       <c r="IN36">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO36">
         <v>1</v>
@@ -19635,7 +19635,7 @@
         <v>0</v>
       </c>
       <c r="JG36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ36">
         <v>0</v>
@@ -19644,7 +19644,7 @@
         <v>0</v>
       </c>
       <c r="JL36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:290">
@@ -19657,11 +19657,14 @@
       <c r="E37">
         <v>14119</v>
       </c>
-      <c r="F37">
-        <v>3</v>
+      <c r="F37" t="s">
+        <v>328</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
       </c>
       <c r="H37">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -19670,7 +19673,7 @@
         <v>2.6</v>
       </c>
       <c r="K37">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -19814,7 +19817,7 @@
         <v>0</v>
       </c>
       <c r="DE37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF37" t="s">
         <v>368</v>
@@ -20057,7 +20060,7 @@
         <v>0</v>
       </c>
       <c r="JG37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ37">
         <v>0</v>
@@ -20066,7 +20069,7 @@
         <v>0</v>
       </c>
       <c r="JL37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:290">
@@ -20079,11 +20082,11 @@
       <c r="E38">
         <v>13668</v>
       </c>
-      <c r="F38">
-        <v>4</v>
+      <c r="G38">
+        <v>3</v>
       </c>
       <c r="H38">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -20092,7 +20095,7 @@
         <v>2.6</v>
       </c>
       <c r="K38">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -20251,7 +20254,7 @@
         <v>60</v>
       </c>
       <c r="DE38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF38" t="s">
         <v>368</v>
@@ -20584,7 +20587,7 @@
         <v>0</v>
       </c>
       <c r="JG38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ38">
         <v>0</v>
@@ -20593,7 +20596,7 @@
         <v>0</v>
       </c>
       <c r="JL38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:290">
@@ -20606,14 +20609,11 @@
       <c r="E39">
         <v>13273</v>
       </c>
-      <c r="F39">
-        <v>4</v>
-      </c>
-      <c r="G39" t="s">
-        <v>328</v>
+      <c r="G39">
+        <v>3</v>
       </c>
       <c r="H39">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -20622,7 +20622,7 @@
         <v>2.6</v>
       </c>
       <c r="K39">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -20781,7 +20781,7 @@
         <v>50</v>
       </c>
       <c r="DE39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF39" t="s">
         <v>368</v>
@@ -21063,7 +21063,7 @@
         <v>484</v>
       </c>
       <c r="IN39">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO39">
         <v>1</v>
@@ -21120,7 +21120,7 @@
         <v>50</v>
       </c>
       <c r="JG39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ39">
         <v>0</v>
@@ -21129,7 +21129,7 @@
         <v>0</v>
       </c>
       <c r="JL39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:290">
@@ -21142,7 +21142,7 @@
       <c r="E40">
         <v>13127</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>4</v>
       </c>
       <c r="H40">
@@ -21314,7 +21314,7 @@
         <v>52</v>
       </c>
       <c r="DE40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF40" t="s">
         <v>368</v>
@@ -21647,7 +21647,7 @@
         <v>0</v>
       </c>
       <c r="JG40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ40">
         <v>0</v>
@@ -21656,7 +21656,7 @@
         <v>0</v>
       </c>
       <c r="JL40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -21689,7 +21689,7 @@
         <v>502</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>503</v>
@@ -21808,7 +21808,7 @@
         <v>484</v>
       </c>
       <c r="S2">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="T2">
         <v>1</v>
